--- a/_DWH_Projects/Project_AdwentureWorks/2_workbench/workbench_AdwentureWorks.xlsx
+++ b/_DWH_Projects/Project_AdwentureWorks/2_workbench/workbench_AdwentureWorks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2412" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stages" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,7 +28,13 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
     </font>
@@ -38,22 +44,10 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -63,34 +57,52 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF366092"/>
-        <bgColor rgb="FF366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="4" tint="0.7999816888943144"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -109,17 +121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -127,29 +128,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -229,7 +221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Stages" displayName="Table_Stages" ref="A1:F8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Stages" displayName="Table_Stages" ref="A1:F8" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Stage ID"/>
@@ -239,7 +231,7 @@
     <tableColumn id="5" name="Stage DDL Default Templates"/>
     <tableColumn id="6" name="Stage ETL Default Templates"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -318,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,6 +345,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,7 +369,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -386,31 +379,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -432,7 +425,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -490,7 +483,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -503,13 +496,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -529,58 +521,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A2:F8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="50" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="38" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="29" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Stage ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Stage Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Stage Color</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Stage Technical Columns</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Stage DDL Default Templates</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Stage ETL Default Templates</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>s0</t>
@@ -612,7 +604,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>s1</t>
@@ -644,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>s2</t>
@@ -676,7 +668,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>s3</t>
@@ -708,7 +700,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>s4</t>
@@ -740,7 +732,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>s5</t>
@@ -757,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="18.75" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>s6</t>
@@ -775,8 +767,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
@@ -786,7 +777,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O20"/>
@@ -795,86 +786,95 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="95.88671875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" min="7" max="15"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Stage ID</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Stage Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Artifact ID</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Artifact Name</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Upstream Artifacts</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Artifact Comment</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Artifact Topology</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Upstream Relations</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Upstream Relation Types</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Artifact Relation Direction</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Artifact Domain</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>DDL Template</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ETL Template</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DDL Production File</t>
         </is>
       </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ETL Production File</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>s0</t>
@@ -902,7 +902,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>s0</t>
@@ -930,7 +930,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>s0</t>
@@ -958,7 +958,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>s1</t>
@@ -991,7 +991,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>s1</t>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>s1</t>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="18.75" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>s2</t>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="18.75" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>s2</t>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="18.75" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>s2</t>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="18.75" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>s3</t>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="18.75" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>s3</t>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="18.75" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>s3</t>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="18.75" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>s4</t>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="18.75" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>s4</t>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="18.75" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>s4</t>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="18.75" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>s5</t>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="18.75" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>s5</t>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="18.75" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>s5</t>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="18.75" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
           <t>s6</t>
@@ -1517,7 +1517,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1527,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1536,54 +1536,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Stage Name</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Artifact ID</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Artifact Name</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Column ID</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Column Name</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Order</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Data Type</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Column Comment</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Column Business Name </t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Column Group</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Simple Calculation</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Readable Column Name</t>
         </is>
       </c>
     </row>
@@ -1628,6 +1638,12 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>customer_id</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1670,6 +1686,12 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>customer_name</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1712,6 +1734,12 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>customer_id</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1782,12 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1796,6 +1830,12 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>transaction_date</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1838,6 +1878,12 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1880,6 +1926,12 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1922,6 +1974,12 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>product_name</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
